--- a/Config/data_config/EntityAttrLevel.xlsx
+++ b/Config/data_config/EntityAttrLevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15960" windowHeight="10395"/>
+    <workbookView windowWidth="28440" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -139,7 +139,7 @@
     <t>技能冷却</t>
   </si>
   <si>
-    <t>上官翎</t>
+    <t>隐墨</t>
   </si>
   <si>
     <t>0</t>
@@ -148,79 +148,13 @@
     <t>凤紫夕</t>
   </si>
   <si>
-    <t>151</t>
+    <t>唐依</t>
   </si>
   <si>
-    <t>152</t>
+    <t>林清远</t>
   </si>
   <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>怪物1类</t>
+    <t>怪物通用</t>
   </si>
 </sst>
 </file>
@@ -837,7 +771,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -859,14 +793,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1216,10 +1144,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:Q138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8265" ySplit="2715" topLeftCell="D91" activePane="bottomRight"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="K106" sqref="K106:K135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1397,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>11001001</v>
+        <v>10001</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1429,12 +1361,9 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4"/>
-      <c r="N4"/>
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4"/>
       <c r="Q4">
         <v>0</v>
       </c>
@@ -1444,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>11001002</v>
+        <v>10002</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1456,32 +1385,29 @@
         <v>36</v>
       </c>
       <c r="F5" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" s="6">
         <v>50</v>
       </c>
-      <c r="I5" s="6">
-        <v>20</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="I5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="7">
         <v>50</v>
       </c>
-      <c r="K5" s="8">
-        <v>100</v>
+      <c r="K5" s="7">
+        <v>15</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5"/>
-      <c r="N5"/>
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5"/>
       <c r="Q5">
         <v>0</v>
       </c>
@@ -1491,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>11001003</v>
+        <v>10003</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1503,32 +1429,29 @@
         <v>36</v>
       </c>
       <c r="F6" s="6">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="G6" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" s="6">
         <v>100</v>
       </c>
-      <c r="I6" s="6">
-        <v>40</v>
-      </c>
-      <c r="J6" s="8">
-        <v>60</v>
-      </c>
-      <c r="K6" s="8">
-        <v>150</v>
+      <c r="I6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="7">
+        <v>65</v>
+      </c>
+      <c r="K6" s="7">
+        <v>25</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6"/>
-      <c r="N6"/>
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6"/>
       <c r="Q6">
         <v>0</v>
       </c>
@@ -1538,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>11001004</v>
+        <v>10004</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1550,28 +1473,26 @@
         <v>36</v>
       </c>
       <c r="F7" s="6">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="G7" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7" s="6">
         <v>150</v>
       </c>
-      <c r="I7" s="6">
-        <v>60</v>
-      </c>
-      <c r="J7" s="8">
-        <v>70</v>
-      </c>
-      <c r="K7" s="8">
-        <v>200</v>
+      <c r="I7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="7">
+        <v>80</v>
+      </c>
+      <c r="K7" s="7">
+        <v>35</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7"/>
-      <c r="N7"/>
       <c r="O7">
         <v>0</v>
       </c>
@@ -1581,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>11001005</v>
+        <v>10005</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1593,28 +1514,26 @@
         <v>36</v>
       </c>
       <c r="F8" s="6">
-        <v>10000</v>
+        <v>40</v>
       </c>
       <c r="G8" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" s="6">
         <v>200</v>
       </c>
-      <c r="I8" s="6">
-        <v>80</v>
-      </c>
-      <c r="J8" s="8">
-        <v>80</v>
-      </c>
-      <c r="K8" s="8">
-        <v>250</v>
+      <c r="I8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="7">
+        <v>95</v>
+      </c>
+      <c r="K8" s="7">
+        <v>45</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8"/>
-      <c r="N8"/>
       <c r="O8">
         <v>0</v>
       </c>
@@ -1624,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>11001006</v>
+        <v>10006</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1636,32 +1555,29 @@
         <v>36</v>
       </c>
       <c r="F9" s="6">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="G9" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" s="6">
         <v>250</v>
       </c>
-      <c r="I9" s="6">
-        <v>100</v>
-      </c>
-      <c r="J9" s="8">
-        <v>90</v>
-      </c>
-      <c r="K9" s="8">
-        <v>300</v>
+      <c r="I9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="7">
+        <v>110</v>
+      </c>
+      <c r="K9" s="7">
+        <v>55</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9"/>
-      <c r="N9"/>
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9"/>
       <c r="Q9">
         <v>0</v>
       </c>
@@ -1671,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>11001007</v>
+        <v>10007</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1683,32 +1599,29 @@
         <v>36</v>
       </c>
       <c r="F10" s="6">
-        <v>10000</v>
+        <v>60</v>
       </c>
       <c r="G10" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" s="6">
         <v>300</v>
       </c>
-      <c r="I10" s="6">
-        <v>120</v>
-      </c>
-      <c r="J10" s="8">
-        <v>100</v>
-      </c>
-      <c r="K10" s="8">
-        <v>350</v>
+      <c r="I10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="7">
+        <v>125</v>
+      </c>
+      <c r="K10" s="7">
+        <v>65</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10"/>
-      <c r="N10"/>
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10"/>
       <c r="Q10">
         <v>0</v>
       </c>
@@ -1718,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>11001008</v>
+        <v>10008</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1730,28 +1643,26 @@
         <v>36</v>
       </c>
       <c r="F11" s="6">
-        <v>10000</v>
+        <v>70</v>
       </c>
       <c r="G11" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" s="6">
         <v>350</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="7">
         <v>140</v>
       </c>
-      <c r="J11" s="8">
-        <v>110</v>
-      </c>
-      <c r="K11" s="8">
-        <v>400</v>
+      <c r="K11" s="7">
+        <v>75</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11"/>
-      <c r="N11"/>
       <c r="O11">
         <v>0</v>
       </c>
@@ -1761,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>11001009</v>
+        <v>10009</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1773,28 +1684,26 @@
         <v>36</v>
       </c>
       <c r="F12" s="6">
-        <v>10000</v>
+        <v>80</v>
       </c>
       <c r="G12" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" s="6">
         <v>400</v>
       </c>
-      <c r="I12" s="6">
-        <v>160</v>
-      </c>
-      <c r="J12" s="8">
-        <v>120</v>
-      </c>
-      <c r="K12" s="8">
-        <v>450</v>
+      <c r="I12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="7">
+        <v>155</v>
+      </c>
+      <c r="K12" s="7">
+        <v>85</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12"/>
-      <c r="N12"/>
       <c r="O12">
         <v>0</v>
       </c>
@@ -1804,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>11001010</v>
+        <v>10010</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1816,28 +1725,26 @@
         <v>36</v>
       </c>
       <c r="F13" s="6">
-        <v>10000</v>
+        <v>90</v>
       </c>
       <c r="G13" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" s="6">
         <v>450</v>
       </c>
-      <c r="I13" s="6">
-        <v>180</v>
-      </c>
-      <c r="J13" s="8">
-        <v>130</v>
-      </c>
-      <c r="K13" s="8">
-        <v>500</v>
+      <c r="I13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="7">
+        <v>170</v>
+      </c>
+      <c r="K13" s="7">
+        <v>95</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13"/>
-      <c r="N13"/>
       <c r="O13">
         <v>0</v>
       </c>
@@ -1847,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>11001011</v>
+        <v>10011</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1859,28 +1766,26 @@
         <v>36</v>
       </c>
       <c r="F14" s="6">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G14" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" s="6">
         <v>500</v>
       </c>
-      <c r="I14" s="6">
-        <v>200</v>
-      </c>
-      <c r="J14" s="8">
-        <v>140</v>
-      </c>
-      <c r="K14" s="8">
-        <v>550</v>
+      <c r="I14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="7">
+        <v>185</v>
+      </c>
+      <c r="K14" s="7">
+        <v>105</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14"/>
-      <c r="N14"/>
       <c r="O14">
         <v>0</v>
       </c>
@@ -1890,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>11001012</v>
+        <v>10012</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1902,28 +1807,26 @@
         <v>36</v>
       </c>
       <c r="F15" s="6">
-        <v>10000</v>
+        <v>110</v>
       </c>
       <c r="G15" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" s="6">
         <v>550</v>
       </c>
-      <c r="I15" s="6">
-        <v>220</v>
-      </c>
-      <c r="J15" s="8">
-        <v>150</v>
-      </c>
-      <c r="K15" s="8">
-        <v>600</v>
+      <c r="I15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="7">
+        <v>200</v>
+      </c>
+      <c r="K15" s="7">
+        <v>115</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15"/>
-      <c r="N15"/>
       <c r="O15">
         <v>0</v>
       </c>
@@ -1933,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>11001013</v>
+        <v>10013</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1945,28 +1848,26 @@
         <v>36</v>
       </c>
       <c r="F16" s="6">
-        <v>10000</v>
+        <v>120</v>
       </c>
       <c r="G16" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H16" s="6">
         <v>600</v>
       </c>
-      <c r="I16" s="6">
-        <v>240</v>
-      </c>
-      <c r="J16" s="8">
-        <v>160</v>
-      </c>
-      <c r="K16" s="8">
-        <v>650</v>
+      <c r="I16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="7">
+        <v>215</v>
+      </c>
+      <c r="K16" s="7">
+        <v>125</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16"/>
-      <c r="N16"/>
       <c r="O16">
         <v>0</v>
       </c>
@@ -1976,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>11001014</v>
+        <v>10014</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1988,32 +1889,29 @@
         <v>36</v>
       </c>
       <c r="F17" s="6">
-        <v>10000</v>
+        <v>130</v>
       </c>
       <c r="G17" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H17" s="6">
         <v>650</v>
       </c>
-      <c r="I17" s="6">
-        <v>260</v>
-      </c>
-      <c r="J17" s="8">
-        <v>170</v>
-      </c>
-      <c r="K17" s="8">
-        <v>700</v>
+      <c r="I17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="7">
+        <v>230</v>
+      </c>
+      <c r="K17" s="7">
+        <v>135</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17"/>
-      <c r="N17"/>
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17"/>
       <c r="Q17">
         <v>0</v>
       </c>
@@ -2023,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>11001015</v>
+        <v>10015</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2035,28 +1933,26 @@
         <v>36</v>
       </c>
       <c r="F18" s="6">
-        <v>10000</v>
+        <v>140</v>
       </c>
       <c r="G18" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H18" s="6">
         <v>700</v>
       </c>
-      <c r="I18" s="6">
-        <v>280</v>
-      </c>
-      <c r="J18" s="8">
-        <v>180</v>
-      </c>
-      <c r="K18" s="8">
-        <v>750</v>
+      <c r="I18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="7">
+        <v>245</v>
+      </c>
+      <c r="K18" s="7">
+        <v>145</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18"/>
-      <c r="N18"/>
       <c r="O18">
         <v>0</v>
       </c>
@@ -2066,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>11001016</v>
+        <v>10016</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2078,28 +1974,26 @@
         <v>36</v>
       </c>
       <c r="F19" s="6">
-        <v>10000</v>
+        <v>150</v>
       </c>
       <c r="G19" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19" s="6">
         <v>750</v>
       </c>
-      <c r="I19" s="6">
-        <v>300</v>
-      </c>
-      <c r="J19" s="8">
-        <v>190</v>
-      </c>
-      <c r="K19" s="8">
-        <v>800</v>
+      <c r="I19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="7">
+        <v>260</v>
+      </c>
+      <c r="K19" s="7">
+        <v>155</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19"/>
-      <c r="N19"/>
       <c r="O19">
         <v>0</v>
       </c>
@@ -2109,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>11001017</v>
+        <v>10017</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2121,28 +2015,26 @@
         <v>36</v>
       </c>
       <c r="F20" s="6">
-        <v>10000</v>
+        <v>160</v>
       </c>
       <c r="G20" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H20" s="6">
         <v>800</v>
       </c>
-      <c r="I20" s="6">
-        <v>320</v>
-      </c>
-      <c r="J20" s="8">
-        <v>200</v>
-      </c>
-      <c r="K20" s="8">
-        <v>850</v>
+      <c r="I20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="7">
+        <v>275</v>
+      </c>
+      <c r="K20" s="7">
+        <v>165</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20"/>
-      <c r="N20"/>
       <c r="O20">
         <v>0</v>
       </c>
@@ -2152,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>11001018</v>
+        <v>10018</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2164,28 +2056,26 @@
         <v>36</v>
       </c>
       <c r="F21" s="6">
-        <v>10000</v>
+        <v>170</v>
       </c>
       <c r="G21" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H21" s="6">
         <v>850</v>
       </c>
-      <c r="I21" s="6">
-        <v>340</v>
-      </c>
-      <c r="J21" s="8">
-        <v>210</v>
-      </c>
-      <c r="K21" s="8">
-        <v>900</v>
+      <c r="I21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="7">
+        <v>290</v>
+      </c>
+      <c r="K21" s="7">
+        <v>175</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21"/>
-      <c r="N21"/>
       <c r="O21">
         <v>0</v>
       </c>
@@ -2195,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>11001019</v>
+        <v>10019</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2207,28 +2097,26 @@
         <v>36</v>
       </c>
       <c r="F22" s="6">
-        <v>10000</v>
+        <v>180</v>
       </c>
       <c r="G22" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H22" s="6">
         <v>900</v>
       </c>
-      <c r="I22" s="6">
-        <v>360</v>
-      </c>
-      <c r="J22" s="8">
-        <v>220</v>
-      </c>
-      <c r="K22" s="8">
-        <v>950</v>
+      <c r="I22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="7">
+        <v>305</v>
+      </c>
+      <c r="K22" s="7">
+        <v>185</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22"/>
-      <c r="N22"/>
       <c r="O22">
         <v>0</v>
       </c>
@@ -2238,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>11001020</v>
+        <v>10020</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2250,28 +2138,26 @@
         <v>36</v>
       </c>
       <c r="F23" s="6">
-        <v>10000</v>
+        <v>190</v>
       </c>
       <c r="G23" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H23" s="6">
         <v>950</v>
       </c>
-      <c r="I23" s="6">
-        <v>380</v>
-      </c>
-      <c r="J23" s="8">
-        <v>230</v>
-      </c>
-      <c r="K23" s="8">
-        <v>1000</v>
+      <c r="I23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="7">
+        <v>320</v>
+      </c>
+      <c r="K23" s="7">
+        <v>195</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23"/>
-      <c r="N23"/>
       <c r="O23">
         <v>0</v>
       </c>
@@ -2281,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>11001021</v>
+        <v>10021</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2293,28 +2179,26 @@
         <v>36</v>
       </c>
       <c r="F24" s="6">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="G24" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H24" s="6">
         <v>1000</v>
       </c>
-      <c r="I24" s="6">
-        <v>400</v>
-      </c>
-      <c r="J24" s="8">
-        <v>240</v>
-      </c>
-      <c r="K24" s="8">
-        <v>1050</v>
+      <c r="I24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="7">
+        <v>335</v>
+      </c>
+      <c r="K24" s="7">
+        <v>205</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24"/>
-      <c r="N24"/>
       <c r="O24">
         <v>0</v>
       </c>
@@ -2324,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>11001022</v>
+        <v>10022</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2336,28 +2220,26 @@
         <v>36</v>
       </c>
       <c r="F25" s="6">
-        <v>10000</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25" s="6">
         <v>1050</v>
       </c>
-      <c r="I25" s="6">
-        <v>420</v>
-      </c>
-      <c r="J25" s="8">
-        <v>250</v>
-      </c>
-      <c r="K25" s="8">
-        <v>1100</v>
+      <c r="I25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="7">
+        <v>350</v>
+      </c>
+      <c r="K25" s="7">
+        <v>215</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25"/>
-      <c r="N25"/>
       <c r="O25">
         <v>0</v>
       </c>
@@ -2367,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>11001023</v>
+        <v>10023</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2379,28 +2261,26 @@
         <v>36</v>
       </c>
       <c r="F26" s="6">
-        <v>10000</v>
+        <v>220</v>
       </c>
       <c r="G26" s="6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H26" s="6">
         <v>1100</v>
       </c>
-      <c r="I26" s="6">
-        <v>440</v>
-      </c>
-      <c r="J26" s="8">
-        <v>260</v>
-      </c>
-      <c r="K26" s="8">
-        <v>1150</v>
+      <c r="I26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="7">
+        <v>365</v>
+      </c>
+      <c r="K26" s="7">
+        <v>225</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26"/>
-      <c r="N26"/>
       <c r="O26">
         <v>0</v>
       </c>
@@ -2410,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>11001024</v>
+        <v>10024</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2422,28 +2302,26 @@
         <v>36</v>
       </c>
       <c r="F27" s="6">
-        <v>10000</v>
+        <v>230</v>
       </c>
       <c r="G27" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" s="6">
         <v>1150</v>
       </c>
-      <c r="I27" s="6">
-        <v>460</v>
-      </c>
-      <c r="J27" s="8">
-        <v>270</v>
-      </c>
-      <c r="K27" s="8">
-        <v>1200</v>
+      <c r="I27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="7">
+        <v>380</v>
+      </c>
+      <c r="K27" s="7">
+        <v>235</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27"/>
-      <c r="N27"/>
       <c r="O27">
         <v>0</v>
       </c>
@@ -2453,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>11001025</v>
+        <v>10025</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2465,79 +2343,108 @@
         <v>36</v>
       </c>
       <c r="F28" s="6">
-        <v>10000</v>
+        <v>240</v>
       </c>
       <c r="G28" s="6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" s="6">
         <v>1200</v>
       </c>
-      <c r="I28" s="6">
-        <v>480</v>
-      </c>
-      <c r="J28" s="8">
-        <v>280</v>
-      </c>
-      <c r="K28" s="8">
+      <c r="I28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="7">
+        <v>395</v>
+      </c>
+      <c r="K28" s="7">
+        <v>245</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>10026</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>26</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="6">
+        <v>250</v>
+      </c>
+      <c r="G29" s="6">
+        <v>51</v>
+      </c>
+      <c r="H29" s="6">
         <v>1250</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="6:11">
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="I29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" s="7">
+        <v>410</v>
+      </c>
+      <c r="K29" s="7">
+        <v>255</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30">
-        <v>11002001</v>
+        <v>10027</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="4">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="F30" s="6">
+        <v>260</v>
+      </c>
+      <c r="G30" s="6">
+        <v>53</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1300</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M30"/>
-      <c r="N30"/>
+      <c r="J30" s="7">
+        <v>425</v>
+      </c>
+      <c r="K30" s="7">
+        <v>265</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
       <c r="O30">
         <v>0</v>
       </c>
@@ -2547,40 +2454,38 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>11002002</v>
+        <v>10028</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="4">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="F31" s="6">
+        <v>270</v>
       </c>
       <c r="G31" s="6">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H31" s="6">
-        <v>366</v>
-      </c>
-      <c r="I31" s="6">
-        <v>226</v>
-      </c>
-      <c r="J31" s="8">
-        <v>50</v>
-      </c>
-      <c r="K31" s="8">
-        <v>500</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M31"/>
-      <c r="N31"/>
+        <v>1350</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="7">
+        <v>440</v>
+      </c>
+      <c r="K31" s="7">
+        <v>275</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
       <c r="O31">
         <v>0</v>
       </c>
@@ -2590,298 +2495,164 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>11002003</v>
+        <v>10029</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="4">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="F32" s="6">
+        <v>280</v>
       </c>
       <c r="G32" s="6">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="H32" s="6">
-        <v>367</v>
-      </c>
-      <c r="I32" s="6">
-        <v>227</v>
-      </c>
-      <c r="J32" s="8">
-        <v>51</v>
-      </c>
-      <c r="K32" s="8">
-        <v>501</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M32"/>
-      <c r="N32"/>
+        <v>1400</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" s="7">
+        <v>455</v>
+      </c>
+      <c r="K32" s="7">
+        <v>285</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
       <c r="O32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" spans="1:15">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>0</v>
       </c>
       <c r="B33">
-        <v>11002004</v>
+        <v>10030</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="4">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="F33" s="6">
+        <v>290</v>
       </c>
       <c r="G33" s="6">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="H33" s="6">
-        <v>368</v>
-      </c>
-      <c r="I33" s="6">
-        <v>228</v>
-      </c>
-      <c r="J33" s="8">
-        <v>52</v>
-      </c>
-      <c r="K33" s="8">
-        <v>502</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M33"/>
-      <c r="N33"/>
+        <v>1450</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="7">
+        <v>470</v>
+      </c>
+      <c r="K33" s="7">
+        <v>295</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
       <c r="O33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <v>11002005</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34" s="4">
-        <v>5</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="6">
-        <v>14</v>
-      </c>
-      <c r="H34" s="6">
-        <v>369</v>
-      </c>
-      <c r="I34" s="6">
-        <v>229</v>
-      </c>
-      <c r="J34" s="8">
-        <v>53</v>
-      </c>
-      <c r="K34" s="8">
-        <v>503</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35">
-        <v>11002006</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" s="4">
-        <v>6</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" s="6">
-        <v>15</v>
-      </c>
-      <c r="H35" s="6">
-        <v>370</v>
-      </c>
-      <c r="I35" s="6">
-        <v>230</v>
-      </c>
-      <c r="J35" s="8">
-        <v>54</v>
-      </c>
-      <c r="K35" s="8">
-        <v>504</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36">
-        <v>11002007</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36" s="4">
-        <v>7</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="6">
-        <v>16</v>
-      </c>
-      <c r="H36" s="6">
-        <v>371</v>
-      </c>
-      <c r="I36" s="6">
-        <v>231</v>
-      </c>
-      <c r="J36" s="8">
-        <v>55</v>
-      </c>
-      <c r="K36" s="8">
-        <v>505</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <v>11002008</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37" s="4">
-        <v>8</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="6">
-        <v>17</v>
-      </c>
-      <c r="H37" s="6">
-        <v>372</v>
-      </c>
-      <c r="I37" s="6">
-        <v>232</v>
-      </c>
-      <c r="J37" s="8">
-        <v>56</v>
-      </c>
-      <c r="K37" s="8">
-        <v>506</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37">
-        <v>0</v>
-      </c>
+    <row r="34" spans="4:12">
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="4:12">
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="4:12">
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="4:12">
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>0</v>
       </c>
       <c r="B38">
-        <v>11002009</v>
+        <v>20001</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="6">
-        <v>18</v>
-      </c>
-      <c r="H38" s="6">
-        <v>373</v>
-      </c>
-      <c r="I38" s="6">
-        <v>233</v>
-      </c>
-      <c r="J38" s="8">
-        <v>57</v>
-      </c>
-      <c r="K38" s="8">
-        <v>507</v>
+        <v>37</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M38"/>
-      <c r="N38"/>
       <c r="O38">
         <v>0</v>
       </c>
@@ -2891,40 +2662,38 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <v>11002010</v>
+        <v>20002</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>47</v>
+      <c r="F39" s="6">
+        <v>15</v>
       </c>
       <c r="G39" s="6">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H39" s="6">
-        <v>374</v>
-      </c>
-      <c r="I39" s="6">
-        <v>234</v>
-      </c>
-      <c r="J39" s="8">
-        <v>58</v>
-      </c>
-      <c r="K39" s="8">
-        <v>508</v>
+        <v>40</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" s="7">
+        <v>60</v>
+      </c>
+      <c r="K39" s="7">
+        <v>20</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M39"/>
-      <c r="N39"/>
       <c r="O39">
         <v>0</v>
       </c>
@@ -2934,83 +2703,79 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <v>11002011</v>
+        <v>20003</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40" s="4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>48</v>
+      <c r="F40" s="6">
+        <v>28</v>
       </c>
       <c r="G40" s="6">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H40" s="6">
-        <v>375</v>
-      </c>
-      <c r="I40" s="6">
-        <v>235</v>
-      </c>
-      <c r="J40" s="8">
-        <v>59</v>
-      </c>
-      <c r="K40" s="8">
-        <v>509</v>
+        <v>80</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" s="7">
+        <v>78</v>
+      </c>
+      <c r="K40" s="7">
+        <v>33</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M40"/>
-      <c r="N40"/>
       <c r="O40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" ht="15" customHeight="1" spans="1:15">
       <c r="A41" t="s">
         <v>0</v>
       </c>
       <c r="B41">
-        <v>11002012</v>
+        <v>20004</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41" s="4">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>49</v>
+      <c r="F41" s="6">
+        <v>41</v>
       </c>
       <c r="G41" s="6">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H41" s="6">
-        <v>376</v>
-      </c>
-      <c r="I41" s="6">
-        <v>236</v>
-      </c>
-      <c r="J41" s="8">
-        <v>60</v>
-      </c>
-      <c r="K41" s="8">
-        <v>510</v>
+        <v>120</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41" s="7">
+        <v>96</v>
+      </c>
+      <c r="K41" s="7">
+        <v>46</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M41"/>
-      <c r="N41"/>
       <c r="O41">
         <v>0</v>
       </c>
@@ -3020,40 +2785,38 @@
         <v>0</v>
       </c>
       <c r="B42">
-        <v>11002013</v>
+        <v>20005</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" s="4">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>50</v>
+      <c r="F42" s="6">
+        <v>54</v>
       </c>
       <c r="G42" s="6">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H42" s="6">
-        <v>377</v>
-      </c>
-      <c r="I42" s="6">
-        <v>237</v>
-      </c>
-      <c r="J42" s="8">
-        <v>61</v>
-      </c>
-      <c r="K42" s="8">
-        <v>511</v>
+        <v>160</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J42" s="7">
+        <v>114</v>
+      </c>
+      <c r="K42" s="7">
+        <v>59</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M42"/>
-      <c r="N42"/>
       <c r="O42">
         <v>0</v>
       </c>
@@ -3063,40 +2826,38 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>11002014</v>
+        <v>20006</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43" s="4">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>51</v>
+      <c r="F43" s="6">
+        <v>67</v>
       </c>
       <c r="G43" s="6">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H43" s="6">
-        <v>378</v>
-      </c>
-      <c r="I43" s="6">
-        <v>238</v>
-      </c>
-      <c r="J43" s="8">
-        <v>62</v>
-      </c>
-      <c r="K43" s="8">
-        <v>512</v>
+        <v>200</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J43" s="7">
+        <v>132</v>
+      </c>
+      <c r="K43" s="7">
+        <v>72</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M43"/>
-      <c r="N43"/>
       <c r="O43">
         <v>0</v>
       </c>
@@ -3106,40 +2867,38 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>11002015</v>
+        <v>20007</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>52</v>
+      <c r="F44" s="6">
+        <v>80</v>
       </c>
       <c r="G44" s="6">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H44" s="6">
-        <v>379</v>
-      </c>
-      <c r="I44" s="6">
-        <v>239</v>
-      </c>
-      <c r="J44" s="8">
-        <v>63</v>
-      </c>
-      <c r="K44" s="8">
-        <v>513</v>
+        <v>240</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J44" s="7">
+        <v>150</v>
+      </c>
+      <c r="K44" s="7">
+        <v>85</v>
       </c>
       <c r="L44" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M44"/>
-      <c r="N44"/>
       <c r="O44">
         <v>0</v>
       </c>
@@ -3149,40 +2908,38 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>11002016</v>
+        <v>20008</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>53</v>
+      <c r="F45" s="6">
+        <v>93</v>
       </c>
       <c r="G45" s="6">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H45" s="6">
-        <v>380</v>
-      </c>
-      <c r="I45" s="6">
-        <v>240</v>
-      </c>
-      <c r="J45" s="8">
-        <v>64</v>
-      </c>
-      <c r="K45" s="8">
-        <v>514</v>
+        <v>280</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" s="7">
+        <v>168</v>
+      </c>
+      <c r="K45" s="7">
+        <v>98</v>
       </c>
       <c r="L45" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M45"/>
-      <c r="N45"/>
       <c r="O45">
         <v>0</v>
       </c>
@@ -3192,40 +2949,38 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>11002017</v>
+        <v>20009</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46" s="4">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>54</v>
+      <c r="F46" s="6">
+        <v>106</v>
       </c>
       <c r="G46" s="6">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H46" s="6">
-        <v>381</v>
-      </c>
-      <c r="I46" s="6">
-        <v>241</v>
-      </c>
-      <c r="J46" s="8">
-        <v>65</v>
-      </c>
-      <c r="K46" s="8">
-        <v>515</v>
+        <v>320</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" s="7">
+        <v>186</v>
+      </c>
+      <c r="K46" s="7">
+        <v>111</v>
       </c>
       <c r="L46" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M46"/>
-      <c r="N46"/>
       <c r="O46">
         <v>0</v>
       </c>
@@ -3235,40 +2990,38 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>11002018</v>
+        <v>20010</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" s="4">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>55</v>
+      <c r="F47" s="6">
+        <v>119</v>
       </c>
       <c r="G47" s="6">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H47" s="6">
-        <v>382</v>
-      </c>
-      <c r="I47" s="6">
-        <v>242</v>
-      </c>
-      <c r="J47" s="8">
-        <v>66</v>
-      </c>
-      <c r="K47" s="8">
-        <v>516</v>
+        <v>360</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="7">
+        <v>204</v>
+      </c>
+      <c r="K47" s="7">
+        <v>124</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M47"/>
-      <c r="N47"/>
       <c r="O47">
         <v>0</v>
       </c>
@@ -3278,40 +3031,38 @@
         <v>0</v>
       </c>
       <c r="B48">
-        <v>11002019</v>
+        <v>20011</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48" s="4">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>56</v>
+      <c r="F48" s="6">
+        <v>132</v>
       </c>
       <c r="G48" s="6">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H48" s="6">
-        <v>383</v>
-      </c>
-      <c r="I48" s="6">
-        <v>243</v>
-      </c>
-      <c r="J48" s="8">
-        <v>67</v>
-      </c>
-      <c r="K48" s="8">
-        <v>517</v>
+        <v>400</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" s="7">
+        <v>222</v>
+      </c>
+      <c r="K48" s="7">
+        <v>137</v>
       </c>
       <c r="L48" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M48"/>
-      <c r="N48"/>
       <c r="O48">
         <v>0</v>
       </c>
@@ -3321,40 +3072,38 @@
         <v>0</v>
       </c>
       <c r="B49">
-        <v>11002020</v>
+        <v>20012</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" s="4">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>57</v>
+      <c r="F49" s="6">
+        <v>145</v>
       </c>
       <c r="G49" s="6">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H49" s="6">
-        <v>384</v>
-      </c>
-      <c r="I49" s="6">
-        <v>244</v>
-      </c>
-      <c r="J49" s="8">
-        <v>68</v>
-      </c>
-      <c r="K49" s="8">
-        <v>518</v>
+        <v>440</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" s="7">
+        <v>240</v>
+      </c>
+      <c r="K49" s="7">
+        <v>150</v>
       </c>
       <c r="L49" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M49"/>
-      <c r="N49"/>
       <c r="O49">
         <v>0</v>
       </c>
@@ -3364,40 +3113,38 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>11002021</v>
+        <v>20013</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50" s="4">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>58</v>
+      <c r="F50" s="6">
+        <v>158</v>
       </c>
       <c r="G50" s="6">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H50" s="6">
-        <v>385</v>
-      </c>
-      <c r="I50" s="6">
-        <v>245</v>
-      </c>
-      <c r="J50" s="8">
-        <v>69</v>
-      </c>
-      <c r="K50" s="8">
-        <v>519</v>
+        <v>480</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J50" s="7">
+        <v>258</v>
+      </c>
+      <c r="K50" s="7">
+        <v>163</v>
       </c>
       <c r="L50" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M50"/>
-      <c r="N50"/>
       <c r="O50">
         <v>0</v>
       </c>
@@ -3407,40 +3154,38 @@
         <v>0</v>
       </c>
       <c r="B51">
-        <v>11002022</v>
+        <v>20014</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51" s="4">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>59</v>
+      <c r="F51" s="6">
+        <v>171</v>
       </c>
       <c r="G51" s="6">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H51" s="6">
-        <v>386</v>
-      </c>
-      <c r="I51" s="6">
-        <v>246</v>
-      </c>
-      <c r="J51" s="8">
-        <v>70</v>
-      </c>
-      <c r="K51" s="8">
         <v>520</v>
       </c>
+      <c r="I51" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J51" s="7">
+        <v>276</v>
+      </c>
+      <c r="K51" s="7">
+        <v>176</v>
+      </c>
       <c r="L51" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M51"/>
-      <c r="N51"/>
       <c r="O51">
         <v>0</v>
       </c>
@@ -3450,40 +3195,38 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>11002023</v>
+        <v>20015</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52" s="4">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="6" t="s">
-        <v>60</v>
+      <c r="F52" s="6">
+        <v>184</v>
       </c>
       <c r="G52" s="6">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H52" s="6">
-        <v>387</v>
-      </c>
-      <c r="I52" s="6">
-        <v>247</v>
-      </c>
-      <c r="J52" s="8">
-        <v>71</v>
-      </c>
-      <c r="K52" s="8">
-        <v>521</v>
+        <v>560</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J52" s="7">
+        <v>294</v>
+      </c>
+      <c r="K52" s="7">
+        <v>189</v>
       </c>
       <c r="L52" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M52"/>
-      <c r="N52"/>
       <c r="O52">
         <v>0</v>
       </c>
@@ -3493,40 +3236,38 @@
         <v>0</v>
       </c>
       <c r="B53">
-        <v>11002024</v>
+        <v>20016</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
       <c r="D53" s="4">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>61</v>
+      <c r="F53" s="6">
+        <v>197</v>
       </c>
       <c r="G53" s="6">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="H53" s="6">
-        <v>388</v>
-      </c>
-      <c r="I53" s="6">
-        <v>248</v>
-      </c>
-      <c r="J53" s="8">
-        <v>72</v>
-      </c>
-      <c r="K53" s="8">
-        <v>522</v>
+        <v>600</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J53" s="7">
+        <v>312</v>
+      </c>
+      <c r="K53" s="7">
+        <v>202</v>
       </c>
       <c r="L53" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M53"/>
-      <c r="N53"/>
       <c r="O53">
         <v>0</v>
       </c>
@@ -3536,41 +3277,80 @@
         <v>0</v>
       </c>
       <c r="B54">
-        <v>11002025</v>
+        <v>20017</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54" s="4">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>62</v>
+      <c r="F54" s="6">
+        <v>210</v>
       </c>
       <c r="G54" s="6">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H54" s="6">
-        <v>389</v>
-      </c>
-      <c r="I54" s="6">
-        <v>249</v>
-      </c>
-      <c r="J54" s="8">
-        <v>73</v>
-      </c>
-      <c r="K54" s="8">
-        <v>523</v>
+        <v>640</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J54" s="7">
+        <v>330</v>
+      </c>
+      <c r="K54" s="7">
+        <v>215</v>
       </c>
       <c r="L54" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M54"/>
-      <c r="N54"/>
       <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>20018</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" s="4">
+        <v>18</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="6">
+        <v>223</v>
+      </c>
+      <c r="G55" s="6">
+        <v>18</v>
+      </c>
+      <c r="H55" s="6">
+        <v>680</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J55" s="7">
+        <v>348</v>
+      </c>
+      <c r="K55" s="7">
+        <v>228</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O55">
         <v>0</v>
       </c>
     </row>
@@ -3579,40 +3359,38 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>11101001</v>
+        <v>20019</v>
       </c>
       <c r="C56">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="D56" s="4">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F56" s="6">
-        <v>0</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>37</v>
+        <v>236</v>
+      </c>
+      <c r="G56" s="6">
+        <v>19</v>
+      </c>
+      <c r="H56" s="6">
+        <v>720</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J56" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>37</v>
+      <c r="J56" s="7">
+        <v>366</v>
+      </c>
+      <c r="K56" s="7">
+        <v>241</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M56"/>
-      <c r="N56"/>
       <c r="O56">
         <v>0</v>
       </c>
@@ -3622,40 +3400,38 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>11101002</v>
+        <v>20020</v>
       </c>
       <c r="C57">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="D57" s="4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F57" s="6">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="G57" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H57" s="6">
-        <v>1</v>
-      </c>
-      <c r="I57" s="6">
-        <v>1</v>
-      </c>
-      <c r="J57" s="6">
-        <v>1</v>
-      </c>
-      <c r="K57" s="6">
-        <v>1</v>
+        <v>760</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J57" s="7">
+        <v>384</v>
+      </c>
+      <c r="K57" s="7">
+        <v>254</v>
       </c>
       <c r="L57" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M57"/>
-      <c r="N57"/>
       <c r="O57">
         <v>0</v>
       </c>
@@ -3665,83 +3441,79 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>11101003</v>
+        <v>20021</v>
       </c>
       <c r="C58">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="D58" s="4">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F58" s="6">
+        <v>262</v>
+      </c>
+      <c r="G58" s="6">
+        <v>21</v>
+      </c>
+      <c r="H58" s="6">
+        <v>800</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J58" s="7">
+        <v>402</v>
+      </c>
+      <c r="K58" s="7">
+        <v>267</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>20022</v>
+      </c>
+      <c r="C59">
         <v>2</v>
       </c>
-      <c r="G58" s="6">
-        <v>2</v>
-      </c>
-      <c r="H58" s="6">
-        <v>2</v>
-      </c>
-      <c r="I58" s="6">
-        <v>2</v>
-      </c>
-      <c r="J58" s="6">
-        <v>2</v>
-      </c>
-      <c r="K58" s="6">
-        <v>2</v>
-      </c>
-      <c r="L58" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" ht="15" customHeight="1" spans="1:15">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59">
-        <v>11101004</v>
-      </c>
-      <c r="C59">
-        <v>10001</v>
-      </c>
       <c r="D59" s="4">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F59" s="6">
-        <v>3</v>
+        <v>275</v>
       </c>
       <c r="G59" s="6">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H59" s="6">
-        <v>3</v>
-      </c>
-      <c r="I59" s="6">
-        <v>3</v>
-      </c>
-      <c r="J59" s="6">
-        <v>3</v>
-      </c>
-      <c r="K59" s="6">
-        <v>3</v>
+        <v>840</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J59" s="7">
+        <v>420</v>
+      </c>
+      <c r="K59" s="7">
+        <v>280</v>
       </c>
       <c r="L59" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M59"/>
-      <c r="N59"/>
       <c r="O59">
         <v>0</v>
       </c>
@@ -3751,40 +3523,38 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>11101005</v>
+        <v>20023</v>
       </c>
       <c r="C60">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="D60" s="4">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F60" s="6">
-        <v>4</v>
+        <v>288</v>
       </c>
       <c r="G60" s="6">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="H60" s="6">
-        <v>4</v>
-      </c>
-      <c r="I60" s="6">
-        <v>4</v>
-      </c>
-      <c r="J60" s="6">
-        <v>4</v>
-      </c>
-      <c r="K60" s="6">
-        <v>4</v>
+        <v>880</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J60" s="7">
+        <v>438</v>
+      </c>
+      <c r="K60" s="7">
+        <v>293</v>
       </c>
       <c r="L60" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M60"/>
-      <c r="N60"/>
       <c r="O60">
         <v>0</v>
       </c>
@@ -3794,40 +3564,38 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>11101006</v>
+        <v>20024</v>
       </c>
       <c r="C61">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="D61" s="4">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F61" s="6">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="G61" s="6">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H61" s="6">
-        <v>5</v>
-      </c>
-      <c r="I61" s="6">
-        <v>5</v>
-      </c>
-      <c r="J61" s="6">
-        <v>5</v>
-      </c>
-      <c r="K61" s="6">
-        <v>5</v>
+        <v>920</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J61" s="7">
+        <v>456</v>
+      </c>
+      <c r="K61" s="7">
+        <v>306</v>
       </c>
       <c r="L61" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M61"/>
-      <c r="N61"/>
       <c r="O61">
         <v>0</v>
       </c>
@@ -3837,40 +3605,38 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <v>11101007</v>
+        <v>20025</v>
       </c>
       <c r="C62">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="D62" s="4">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F62" s="6">
-        <v>6</v>
+        <v>314</v>
       </c>
       <c r="G62" s="6">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H62" s="6">
-        <v>6</v>
-      </c>
-      <c r="I62" s="6">
-        <v>6</v>
-      </c>
-      <c r="J62" s="6">
-        <v>6</v>
-      </c>
-      <c r="K62" s="6">
-        <v>6</v>
+        <v>960</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J62" s="7">
+        <v>474</v>
+      </c>
+      <c r="K62" s="7">
+        <v>319</v>
       </c>
       <c r="L62" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M62"/>
-      <c r="N62"/>
       <c r="O62">
         <v>0</v>
       </c>
@@ -3880,40 +3646,38 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>11101008</v>
+        <v>20026</v>
       </c>
       <c r="C63">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="D63" s="4">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F63" s="6">
-        <v>7</v>
+        <v>327</v>
       </c>
       <c r="G63" s="6">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="H63" s="6">
-        <v>7</v>
-      </c>
-      <c r="I63" s="6">
-        <v>7</v>
-      </c>
-      <c r="J63" s="6">
-        <v>7</v>
-      </c>
-      <c r="K63" s="6">
-        <v>7</v>
+        <v>1000</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J63" s="7">
+        <v>492</v>
+      </c>
+      <c r="K63" s="7">
+        <v>332</v>
       </c>
       <c r="L63" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M63"/>
-      <c r="N63"/>
       <c r="O63">
         <v>0</v>
       </c>
@@ -3923,40 +3687,38 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>11101009</v>
+        <v>20027</v>
       </c>
       <c r="C64">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="D64" s="4">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F64" s="6">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="G64" s="6">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H64" s="6">
-        <v>8</v>
-      </c>
-      <c r="I64" s="6">
-        <v>8</v>
-      </c>
-      <c r="J64" s="6">
-        <v>8</v>
-      </c>
-      <c r="K64" s="6">
-        <v>8</v>
+        <v>1040</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J64" s="7">
+        <v>510</v>
+      </c>
+      <c r="K64" s="7">
+        <v>345</v>
       </c>
       <c r="L64" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M64"/>
-      <c r="N64"/>
       <c r="O64">
         <v>0</v>
       </c>
@@ -3966,40 +3728,38 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>11101010</v>
+        <v>20028</v>
       </c>
       <c r="C65">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="D65" s="4">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F65" s="6">
-        <v>9</v>
+        <v>353</v>
       </c>
       <c r="G65" s="6">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H65" s="6">
-        <v>9</v>
-      </c>
-      <c r="I65" s="6">
-        <v>9</v>
-      </c>
-      <c r="J65" s="6">
-        <v>9</v>
-      </c>
-      <c r="K65" s="6">
-        <v>9</v>
+        <v>1080</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J65" s="7">
+        <v>528</v>
+      </c>
+      <c r="K65" s="7">
+        <v>358</v>
       </c>
       <c r="L65" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M65"/>
-      <c r="N65"/>
       <c r="O65">
         <v>0</v>
       </c>
@@ -4009,40 +3769,38 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>11101011</v>
+        <v>20029</v>
       </c>
       <c r="C66">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="D66" s="4">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F66" s="6">
-        <v>10</v>
+        <v>366</v>
       </c>
       <c r="G66" s="6">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H66" s="6">
-        <v>10</v>
-      </c>
-      <c r="I66" s="6">
-        <v>10</v>
-      </c>
-      <c r="J66" s="6">
-        <v>10</v>
-      </c>
-      <c r="K66" s="6">
-        <v>10</v>
+        <v>1120</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J66" s="7">
+        <v>546</v>
+      </c>
+      <c r="K66" s="7">
+        <v>371</v>
       </c>
       <c r="L66" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M66"/>
-      <c r="N66"/>
       <c r="O66">
         <v>0</v>
       </c>
@@ -4052,600 +3810,2650 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <v>11101012</v>
+        <v>20030</v>
       </c>
       <c r="C67">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="D67" s="4">
+        <v>30</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="6">
+        <v>379</v>
+      </c>
+      <c r="G67" s="6">
+        <v>30</v>
+      </c>
+      <c r="H67" s="6">
+        <v>1160</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J67" s="7">
+        <v>564</v>
+      </c>
+      <c r="K67" s="7">
+        <v>384</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="4:12">
+      <c r="D68" s="4"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="4:12">
+      <c r="D69" s="4"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="4:12">
+      <c r="D70" s="4"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="4:12">
+      <c r="D71" s="4"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" customFormat="1" spans="1:15">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>30001</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:15">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>30002</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" s="4">
+        <v>2</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" s="6">
+        <v>14</v>
+      </c>
+      <c r="G73" s="6">
+        <v>2</v>
+      </c>
+      <c r="H73" s="6">
+        <v>40</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J73" s="7">
+        <v>65</v>
+      </c>
+      <c r="K73" s="7">
+        <v>20</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:15">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>30003</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" s="4">
+        <v>3</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F74" s="6">
+        <v>26</v>
+      </c>
+      <c r="G74" s="6">
+        <v>3</v>
+      </c>
+      <c r="H74" s="6">
+        <v>80</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J74" s="7">
+        <v>85</v>
+      </c>
+      <c r="K74" s="7">
+        <v>33</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" ht="15" customHeight="1" spans="1:15">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>30004</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75" s="4">
+        <v>4</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F75" s="6">
+        <v>38</v>
+      </c>
+      <c r="G75" s="6">
+        <v>4</v>
+      </c>
+      <c r="H75" s="6">
+        <v>120</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J75" s="7">
+        <v>105</v>
+      </c>
+      <c r="K75" s="7">
+        <v>46</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:15">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>30005</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" s="4">
+        <v>5</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F76" s="6">
+        <v>50</v>
+      </c>
+      <c r="G76" s="6">
+        <v>5</v>
+      </c>
+      <c r="H76" s="6">
+        <v>160</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J76" s="7">
+        <v>125</v>
+      </c>
+      <c r="K76" s="7">
+        <v>59</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:15">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>30006</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" s="4">
+        <v>6</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F77" s="6">
+        <v>62</v>
+      </c>
+      <c r="G77" s="6">
+        <v>6</v>
+      </c>
+      <c r="H77" s="6">
+        <v>200</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J77" s="7">
+        <v>145</v>
+      </c>
+      <c r="K77" s="7">
+        <v>72</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:15">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>30007</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78" s="4">
+        <v>7</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78" s="6">
+        <v>74</v>
+      </c>
+      <c r="G78" s="6">
+        <v>7</v>
+      </c>
+      <c r="H78" s="6">
+        <v>240</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J78" s="7">
+        <v>165</v>
+      </c>
+      <c r="K78" s="7">
+        <v>85</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:15">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>30008</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" s="4">
+        <v>8</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F79" s="6">
+        <v>86</v>
+      </c>
+      <c r="G79" s="6">
+        <v>8</v>
+      </c>
+      <c r="H79" s="6">
+        <v>280</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J79" s="7">
+        <v>185</v>
+      </c>
+      <c r="K79" s="7">
+        <v>98</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:15">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>30009</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80" s="4">
+        <v>9</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80" s="6">
+        <v>98</v>
+      </c>
+      <c r="G80" s="6">
+        <v>9</v>
+      </c>
+      <c r="H80" s="6">
+        <v>320</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J80" s="7">
+        <v>205</v>
+      </c>
+      <c r="K80" s="7">
+        <v>111</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:15">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>30010</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81" s="4">
+        <v>10</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F81" s="6">
+        <v>110</v>
+      </c>
+      <c r="G81" s="6">
+        <v>10</v>
+      </c>
+      <c r="H81" s="6">
+        <v>360</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J81" s="7">
+        <v>225</v>
+      </c>
+      <c r="K81" s="7">
+        <v>124</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:15">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>30011</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82" s="4">
+        <v>11</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" s="6">
+        <v>122</v>
+      </c>
+      <c r="G82" s="6">
+        <v>11</v>
+      </c>
+      <c r="H82" s="6">
+        <v>400</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J82" s="7">
+        <v>245</v>
+      </c>
+      <c r="K82" s="7">
+        <v>137</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:15">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>30012</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83" s="4">
         <v>12</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F67" s="6">
+      <c r="E83" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F83" s="6">
+        <v>134</v>
+      </c>
+      <c r="G83" s="6">
+        <v>12</v>
+      </c>
+      <c r="H83" s="6">
+        <v>440</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J83" s="7">
+        <v>265</v>
+      </c>
+      <c r="K83" s="7">
+        <v>150</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:15">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>30013</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" s="4">
+        <v>13</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F84" s="6">
+        <v>146</v>
+      </c>
+      <c r="G84" s="6">
+        <v>13</v>
+      </c>
+      <c r="H84" s="6">
+        <v>480</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J84" s="7">
+        <v>285</v>
+      </c>
+      <c r="K84" s="7">
+        <v>163</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:15">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>30014</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85" s="4">
+        <v>14</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F85" s="6">
+        <v>158</v>
+      </c>
+      <c r="G85" s="6">
+        <v>14</v>
+      </c>
+      <c r="H85" s="6">
+        <v>520</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J85" s="7">
+        <v>305</v>
+      </c>
+      <c r="K85" s="7">
+        <v>176</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:15">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>30015</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86" s="4">
+        <v>15</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F86" s="6">
+        <v>170</v>
+      </c>
+      <c r="G86" s="6">
+        <v>15</v>
+      </c>
+      <c r="H86" s="6">
+        <v>560</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J86" s="7">
+        <v>325</v>
+      </c>
+      <c r="K86" s="7">
+        <v>189</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:15">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>30016</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87" s="4">
+        <v>16</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F87" s="6">
+        <v>182</v>
+      </c>
+      <c r="G87" s="6">
+        <v>16</v>
+      </c>
+      <c r="H87" s="6">
+        <v>600</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J87" s="7">
+        <v>345</v>
+      </c>
+      <c r="K87" s="7">
+        <v>202</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:15">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>30017</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88" s="4">
+        <v>17</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88" s="6">
+        <v>194</v>
+      </c>
+      <c r="G88" s="6">
+        <v>17</v>
+      </c>
+      <c r="H88" s="6">
+        <v>640</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J88" s="7">
+        <v>365</v>
+      </c>
+      <c r="K88" s="7">
+        <v>215</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:15">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>30018</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89" s="4">
+        <v>18</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89" s="6">
+        <v>206</v>
+      </c>
+      <c r="G89" s="6">
+        <v>18</v>
+      </c>
+      <c r="H89" s="6">
+        <v>680</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J89" s="7">
+        <v>385</v>
+      </c>
+      <c r="K89" s="7">
+        <v>228</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:15">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>30019</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90" s="4">
+        <v>19</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F90" s="6">
+        <v>218</v>
+      </c>
+      <c r="G90" s="6">
+        <v>19</v>
+      </c>
+      <c r="H90" s="6">
+        <v>720</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J90" s="7">
+        <v>405</v>
+      </c>
+      <c r="K90" s="7">
+        <v>241</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="1:15">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>30020</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91" s="4">
+        <v>20</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" s="6">
+        <v>230</v>
+      </c>
+      <c r="G91" s="6">
+        <v>20</v>
+      </c>
+      <c r="H91" s="6">
+        <v>760</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J91" s="7">
+        <v>425</v>
+      </c>
+      <c r="K91" s="7">
+        <v>254</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="1:15">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>30021</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92" s="4">
+        <v>21</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F92" s="6">
+        <v>242</v>
+      </c>
+      <c r="G92" s="6">
+        <v>21</v>
+      </c>
+      <c r="H92" s="6">
+        <v>800</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J92" s="7">
+        <v>445</v>
+      </c>
+      <c r="K92" s="7">
+        <v>267</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:15">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>30022</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93" s="4">
+        <v>22</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93" s="6">
+        <v>254</v>
+      </c>
+      <c r="G93" s="6">
+        <v>22</v>
+      </c>
+      <c r="H93" s="6">
+        <v>840</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J93" s="7">
+        <v>465</v>
+      </c>
+      <c r="K93" s="7">
+        <v>280</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:15">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>30023</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94" s="4">
+        <v>23</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F94" s="6">
+        <v>266</v>
+      </c>
+      <c r="G94" s="6">
+        <v>23</v>
+      </c>
+      <c r="H94" s="6">
+        <v>880</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J94" s="7">
+        <v>485</v>
+      </c>
+      <c r="K94" s="7">
+        <v>293</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:15">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>30024</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95" s="4">
+        <v>24</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F95" s="6">
+        <v>278</v>
+      </c>
+      <c r="G95" s="6">
+        <v>24</v>
+      </c>
+      <c r="H95" s="6">
+        <v>920</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J95" s="7">
+        <v>505</v>
+      </c>
+      <c r="K95" s="7">
+        <v>306</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="1:15">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>30025</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96" s="4">
+        <v>25</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F96" s="6">
+        <v>290</v>
+      </c>
+      <c r="G96" s="6">
+        <v>25</v>
+      </c>
+      <c r="H96" s="6">
+        <v>960</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J96" s="7">
+        <v>525</v>
+      </c>
+      <c r="K96" s="7">
+        <v>319</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" spans="1:15">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>30026</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97" s="4">
+        <v>26</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F97" s="6">
+        <v>302</v>
+      </c>
+      <c r="G97" s="6">
+        <v>26</v>
+      </c>
+      <c r="H97" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J97" s="7">
+        <v>545</v>
+      </c>
+      <c r="K97" s="7">
+        <v>332</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" spans="1:15">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>30027</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98" s="4">
+        <v>27</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F98" s="6">
+        <v>314</v>
+      </c>
+      <c r="G98" s="6">
+        <v>27</v>
+      </c>
+      <c r="H98" s="6">
+        <v>1040</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J98" s="7">
+        <v>565</v>
+      </c>
+      <c r="K98" s="7">
+        <v>345</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" spans="1:15">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>30028</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99" s="4">
+        <v>28</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F99" s="6">
+        <v>326</v>
+      </c>
+      <c r="G99" s="6">
+        <v>28</v>
+      </c>
+      <c r="H99" s="6">
+        <v>1080</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J99" s="7">
+        <v>585</v>
+      </c>
+      <c r="K99" s="7">
+        <v>358</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="1" spans="1:15">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>30029</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100" s="4">
+        <v>29</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F100" s="6">
+        <v>338</v>
+      </c>
+      <c r="G100" s="6">
+        <v>29</v>
+      </c>
+      <c r="H100" s="6">
+        <v>1120</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J100" s="7">
+        <v>605</v>
+      </c>
+      <c r="K100" s="7">
+        <v>371</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="1" spans="1:15">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>30030</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101" s="4">
+        <v>30</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F101" s="6">
+        <v>350</v>
+      </c>
+      <c r="G101" s="6">
+        <v>30</v>
+      </c>
+      <c r="H101" s="6">
+        <v>1160</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J101" s="7">
+        <v>625</v>
+      </c>
+      <c r="K101" s="7">
+        <v>384</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="4:12">
+      <c r="D102" s="4"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+    </row>
+    <row r="103" spans="4:12">
+      <c r="D103" s="4"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+    </row>
+    <row r="104" spans="4:12">
+      <c r="D104" s="4"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+    </row>
+    <row r="105" spans="4:12">
+      <c r="D105" s="4"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+    </row>
+    <row r="106" customFormat="1" spans="1:15">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>70001</v>
+      </c>
+      <c r="C106">
+        <v>7</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customFormat="1" spans="1:15">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>70002</v>
+      </c>
+      <c r="C107">
+        <v>7</v>
+      </c>
+      <c r="D107" s="4">
+        <v>2</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F107" s="6">
+        <v>13</v>
+      </c>
+      <c r="G107" s="6">
+        <v>2</v>
+      </c>
+      <c r="H107" s="6">
+        <v>40</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J107" s="7">
+        <v>75</v>
+      </c>
+      <c r="K107" s="7">
+        <v>20</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="1" spans="1:15">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>70003</v>
+      </c>
+      <c r="C108">
+        <v>7</v>
+      </c>
+      <c r="D108" s="4">
+        <v>3</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F108" s="6">
+        <v>24</v>
+      </c>
+      <c r="G108" s="6">
+        <v>3</v>
+      </c>
+      <c r="H108" s="6">
+        <v>80</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J108" s="7">
+        <v>100</v>
+      </c>
+      <c r="K108" s="7">
+        <v>33</v>
+      </c>
+      <c r="L108" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" customFormat="1" ht="15" customHeight="1" spans="1:15">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>70004</v>
+      </c>
+      <c r="C109">
+        <v>7</v>
+      </c>
+      <c r="D109" s="4">
+        <v>4</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F109" s="6">
+        <v>35</v>
+      </c>
+      <c r="G109" s="6">
+        <v>4</v>
+      </c>
+      <c r="H109" s="6">
+        <v>120</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J109" s="7">
+        <v>125</v>
+      </c>
+      <c r="K109" s="7">
+        <v>46</v>
+      </c>
+      <c r="L109" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="1" spans="1:15">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>70005</v>
+      </c>
+      <c r="C110">
+        <v>7</v>
+      </c>
+      <c r="D110" s="4">
+        <v>5</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F110" s="6">
+        <v>46</v>
+      </c>
+      <c r="G110" s="6">
+        <v>5</v>
+      </c>
+      <c r="H110" s="6">
+        <v>160</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J110" s="7">
+        <v>150</v>
+      </c>
+      <c r="K110" s="7">
+        <v>59</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" customFormat="1" spans="1:15">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>70006</v>
+      </c>
+      <c r="C111">
+        <v>7</v>
+      </c>
+      <c r="D111" s="4">
+        <v>6</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F111" s="6">
+        <v>57</v>
+      </c>
+      <c r="G111" s="6">
+        <v>6</v>
+      </c>
+      <c r="H111" s="6">
+        <v>200</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J111" s="7">
+        <v>175</v>
+      </c>
+      <c r="K111" s="7">
+        <v>72</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" customFormat="1" spans="1:15">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>70007</v>
+      </c>
+      <c r="C112">
+        <v>7</v>
+      </c>
+      <c r="D112" s="4">
+        <v>7</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F112" s="6">
+        <v>68</v>
+      </c>
+      <c r="G112" s="6">
+        <v>7</v>
+      </c>
+      <c r="H112" s="6">
+        <v>240</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J112" s="7">
+        <v>200</v>
+      </c>
+      <c r="K112" s="7">
+        <v>85</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="1" spans="1:15">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>70008</v>
+      </c>
+      <c r="C113">
+        <v>7</v>
+      </c>
+      <c r="D113" s="4">
+        <v>8</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F113" s="6">
+        <v>79</v>
+      </c>
+      <c r="G113" s="6">
+        <v>8</v>
+      </c>
+      <c r="H113" s="6">
+        <v>280</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J113" s="7">
+        <v>225</v>
+      </c>
+      <c r="K113" s="7">
+        <v>98</v>
+      </c>
+      <c r="L113" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="1" spans="1:15">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>70009</v>
+      </c>
+      <c r="C114">
+        <v>7</v>
+      </c>
+      <c r="D114" s="4">
+        <v>9</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F114" s="6">
+        <v>90</v>
+      </c>
+      <c r="G114" s="6">
+        <v>9</v>
+      </c>
+      <c r="H114" s="6">
+        <v>320</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J114" s="7">
+        <v>250</v>
+      </c>
+      <c r="K114" s="7">
+        <v>111</v>
+      </c>
+      <c r="L114" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="1" spans="1:15">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>70010</v>
+      </c>
+      <c r="C115">
+        <v>7</v>
+      </c>
+      <c r="D115" s="4">
+        <v>10</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F115" s="6">
+        <v>101</v>
+      </c>
+      <c r="G115" s="6">
+        <v>10</v>
+      </c>
+      <c r="H115" s="6">
+        <v>360</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J115" s="7">
+        <v>275</v>
+      </c>
+      <c r="K115" s="7">
+        <v>124</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" customFormat="1" spans="1:15">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>70011</v>
+      </c>
+      <c r="C116">
+        <v>7</v>
+      </c>
+      <c r="D116" s="4">
         <v>11</v>
       </c>
-      <c r="G67" s="6">
+      <c r="E116" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F116" s="6">
+        <v>112</v>
+      </c>
+      <c r="G116" s="6">
         <v>11</v>
       </c>
-      <c r="H67" s="6">
-        <v>11</v>
-      </c>
-      <c r="I67" s="6">
-        <v>11</v>
-      </c>
-      <c r="J67" s="6">
-        <v>11</v>
-      </c>
-      <c r="K67" s="6">
-        <v>11</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M67"/>
-      <c r="N67"/>
-      <c r="O67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68">
-        <v>11101013</v>
-      </c>
-      <c r="C68">
-        <v>10001</v>
-      </c>
-      <c r="D68" s="4">
+      <c r="H116" s="6">
+        <v>400</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J116" s="7">
+        <v>300</v>
+      </c>
+      <c r="K116" s="7">
+        <v>137</v>
+      </c>
+      <c r="L116" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customFormat="1" spans="1:15">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>70012</v>
+      </c>
+      <c r="C117">
+        <v>7</v>
+      </c>
+      <c r="D117" s="4">
+        <v>12</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F117" s="6">
+        <v>123</v>
+      </c>
+      <c r="G117" s="6">
+        <v>12</v>
+      </c>
+      <c r="H117" s="6">
+        <v>440</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J117" s="7">
+        <v>325</v>
+      </c>
+      <c r="K117" s="7">
+        <v>150</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="1" spans="1:15">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>70013</v>
+      </c>
+      <c r="C118">
+        <v>7</v>
+      </c>
+      <c r="D118" s="4">
         <v>13</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F68" s="6">
-        <v>12</v>
-      </c>
-      <c r="G68" s="6">
-        <v>12</v>
-      </c>
-      <c r="H68" s="6">
-        <v>12</v>
-      </c>
-      <c r="I68" s="6">
-        <v>12</v>
-      </c>
-      <c r="J68" s="6">
-        <v>12</v>
-      </c>
-      <c r="K68" s="6">
-        <v>12</v>
-      </c>
-      <c r="L68" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M68"/>
-      <c r="N68"/>
-      <c r="O68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69">
-        <v>11101014</v>
-      </c>
-      <c r="C69">
-        <v>10001</v>
-      </c>
-      <c r="D69" s="4">
+      <c r="E118" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F118" s="6">
+        <v>134</v>
+      </c>
+      <c r="G118" s="6">
+        <v>13</v>
+      </c>
+      <c r="H118" s="6">
+        <v>480</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J118" s="7">
+        <v>350</v>
+      </c>
+      <c r="K118" s="7">
+        <v>163</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" customFormat="1" spans="1:15">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>70014</v>
+      </c>
+      <c r="C119">
+        <v>7</v>
+      </c>
+      <c r="D119" s="4">
         <v>14</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F69" s="6">
-        <v>13</v>
-      </c>
-      <c r="G69" s="6">
-        <v>13</v>
-      </c>
-      <c r="H69" s="6">
-        <v>13</v>
-      </c>
-      <c r="I69" s="6">
-        <v>13</v>
-      </c>
-      <c r="J69" s="6">
-        <v>13</v>
-      </c>
-      <c r="K69" s="6">
-        <v>13</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M69"/>
-      <c r="N69"/>
-      <c r="O69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70">
-        <v>11101015</v>
-      </c>
-      <c r="C70">
-        <v>10001</v>
-      </c>
-      <c r="D70" s="4">
+      <c r="E119" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F119" s="6">
+        <v>145</v>
+      </c>
+      <c r="G119" s="6">
+        <v>14</v>
+      </c>
+      <c r="H119" s="6">
+        <v>520</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J119" s="7">
+        <v>375</v>
+      </c>
+      <c r="K119" s="7">
+        <v>176</v>
+      </c>
+      <c r="L119" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customFormat="1" spans="1:15">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>70015</v>
+      </c>
+      <c r="C120">
+        <v>7</v>
+      </c>
+      <c r="D120" s="4">
         <v>15</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F70" s="6">
-        <v>14</v>
-      </c>
-      <c r="G70" s="6">
-        <v>14</v>
-      </c>
-      <c r="H70" s="6">
-        <v>14</v>
-      </c>
-      <c r="I70" s="6">
-        <v>14</v>
-      </c>
-      <c r="J70" s="6">
-        <v>14</v>
-      </c>
-      <c r="K70" s="6">
-        <v>14</v>
-      </c>
-      <c r="L70" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71">
-        <v>11101016</v>
-      </c>
-      <c r="C71">
-        <v>10001</v>
-      </c>
-      <c r="D71" s="4">
+      <c r="E120" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F120" s="6">
+        <v>156</v>
+      </c>
+      <c r="G120" s="6">
+        <v>15</v>
+      </c>
+      <c r="H120" s="6">
+        <v>560</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J120" s="7">
+        <v>400</v>
+      </c>
+      <c r="K120" s="7">
+        <v>189</v>
+      </c>
+      <c r="L120" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" customFormat="1" spans="1:15">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>70016</v>
+      </c>
+      <c r="C121">
+        <v>7</v>
+      </c>
+      <c r="D121" s="4">
         <v>16</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F71" s="6">
-        <v>15</v>
-      </c>
-      <c r="G71" s="6">
-        <v>15</v>
-      </c>
-      <c r="H71" s="6">
-        <v>15</v>
-      </c>
-      <c r="I71" s="6">
-        <v>15</v>
-      </c>
-      <c r="J71" s="6">
-        <v>15</v>
-      </c>
-      <c r="K71" s="6">
-        <v>15</v>
-      </c>
-      <c r="L71" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M71"/>
-      <c r="N71"/>
-      <c r="O71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72">
-        <v>11101017</v>
-      </c>
-      <c r="C72">
-        <v>10001</v>
-      </c>
-      <c r="D72" s="4">
+      <c r="E121" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F121" s="6">
+        <v>167</v>
+      </c>
+      <c r="G121" s="6">
+        <v>16</v>
+      </c>
+      <c r="H121" s="6">
+        <v>600</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J121" s="7">
+        <v>425</v>
+      </c>
+      <c r="K121" s="7">
+        <v>202</v>
+      </c>
+      <c r="L121" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" customFormat="1" spans="1:15">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>70017</v>
+      </c>
+      <c r="C122">
+        <v>7</v>
+      </c>
+      <c r="D122" s="4">
         <v>17</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F72" s="6">
-        <v>16</v>
-      </c>
-      <c r="G72" s="6">
-        <v>16</v>
-      </c>
-      <c r="H72" s="6">
-        <v>16</v>
-      </c>
-      <c r="I72" s="6">
-        <v>16</v>
-      </c>
-      <c r="J72" s="6">
-        <v>16</v>
-      </c>
-      <c r="K72" s="6">
-        <v>16</v>
-      </c>
-      <c r="L72" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M72"/>
-      <c r="N72"/>
-      <c r="O72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73">
-        <v>11101018</v>
-      </c>
-      <c r="C73">
-        <v>10001</v>
-      </c>
-      <c r="D73" s="4">
+      <c r="E122" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F122" s="6">
+        <v>178</v>
+      </c>
+      <c r="G122" s="6">
+        <v>17</v>
+      </c>
+      <c r="H122" s="6">
+        <v>640</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J122" s="7">
+        <v>450</v>
+      </c>
+      <c r="K122" s="7">
+        <v>215</v>
+      </c>
+      <c r="L122" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" customFormat="1" spans="1:15">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>70018</v>
+      </c>
+      <c r="C123">
+        <v>7</v>
+      </c>
+      <c r="D123" s="4">
         <v>18</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F73" s="6">
-        <v>17</v>
-      </c>
-      <c r="G73" s="6">
-        <v>17</v>
-      </c>
-      <c r="H73" s="6">
-        <v>17</v>
-      </c>
-      <c r="I73" s="6">
-        <v>17</v>
-      </c>
-      <c r="J73" s="6">
-        <v>17</v>
-      </c>
-      <c r="K73" s="6">
-        <v>17</v>
-      </c>
-      <c r="L73" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M73"/>
-      <c r="N73"/>
-      <c r="O73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74">
-        <v>11101019</v>
-      </c>
-      <c r="C74">
-        <v>10001</v>
-      </c>
-      <c r="D74" s="4">
+      <c r="E123" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F123" s="6">
+        <v>189</v>
+      </c>
+      <c r="G123" s="6">
+        <v>18</v>
+      </c>
+      <c r="H123" s="6">
+        <v>680</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J123" s="7">
+        <v>475</v>
+      </c>
+      <c r="K123" s="7">
+        <v>228</v>
+      </c>
+      <c r="L123" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customFormat="1" spans="1:15">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>70019</v>
+      </c>
+      <c r="C124">
+        <v>7</v>
+      </c>
+      <c r="D124" s="4">
         <v>19</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F74" s="6">
-        <v>18</v>
-      </c>
-      <c r="G74" s="6">
-        <v>18</v>
-      </c>
-      <c r="H74" s="6">
-        <v>18</v>
-      </c>
-      <c r="I74" s="6">
-        <v>18</v>
-      </c>
-      <c r="J74" s="6">
-        <v>18</v>
-      </c>
-      <c r="K74" s="6">
-        <v>18</v>
-      </c>
-      <c r="L74" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="O74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75">
-        <v>11101020</v>
-      </c>
-      <c r="C75">
-        <v>10001</v>
-      </c>
-      <c r="D75" s="4">
+      <c r="E124" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F124" s="6">
+        <v>200</v>
+      </c>
+      <c r="G124" s="6">
+        <v>19</v>
+      </c>
+      <c r="H124" s="6">
+        <v>720</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J124" s="7">
+        <v>500</v>
+      </c>
+      <c r="K124" s="7">
+        <v>241</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" customFormat="1" spans="1:15">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>70020</v>
+      </c>
+      <c r="C125">
+        <v>7</v>
+      </c>
+      <c r="D125" s="4">
         <v>20</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F75" s="6">
-        <v>19</v>
-      </c>
-      <c r="G75" s="6">
-        <v>19</v>
-      </c>
-      <c r="H75" s="6">
-        <v>19</v>
-      </c>
-      <c r="I75" s="6">
-        <v>19</v>
-      </c>
-      <c r="J75" s="6">
-        <v>19</v>
-      </c>
-      <c r="K75" s="6">
-        <v>19</v>
-      </c>
-      <c r="L75" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M75"/>
-      <c r="N75"/>
-      <c r="O75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76">
-        <v>11101021</v>
-      </c>
-      <c r="C76">
-        <v>10001</v>
-      </c>
-      <c r="D76" s="4">
+      <c r="E125" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F125" s="6">
+        <v>211</v>
+      </c>
+      <c r="G125" s="6">
+        <v>20</v>
+      </c>
+      <c r="H125" s="6">
+        <v>760</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J125" s="7">
+        <v>525</v>
+      </c>
+      <c r="K125" s="7">
+        <v>254</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" customFormat="1" spans="1:15">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>70021</v>
+      </c>
+      <c r="C126">
+        <v>7</v>
+      </c>
+      <c r="D126" s="4">
         <v>21</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F76" s="6">
-        <v>20</v>
-      </c>
-      <c r="G76" s="6">
-        <v>20</v>
-      </c>
-      <c r="H76" s="6">
-        <v>20</v>
-      </c>
-      <c r="I76" s="6">
-        <v>20</v>
-      </c>
-      <c r="J76" s="6">
-        <v>20</v>
-      </c>
-      <c r="K76" s="6">
-        <v>20</v>
-      </c>
-      <c r="L76" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M76"/>
-      <c r="N76"/>
-      <c r="O76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77">
-        <v>11101022</v>
-      </c>
-      <c r="C77">
-        <v>10001</v>
-      </c>
-      <c r="D77" s="4">
+      <c r="E126" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F126" s="6">
+        <v>222</v>
+      </c>
+      <c r="G126" s="6">
+        <v>21</v>
+      </c>
+      <c r="H126" s="6">
+        <v>800</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J126" s="7">
+        <v>550</v>
+      </c>
+      <c r="K126" s="7">
+        <v>267</v>
+      </c>
+      <c r="L126" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" customFormat="1" spans="1:15">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>70022</v>
+      </c>
+      <c r="C127">
+        <v>7</v>
+      </c>
+      <c r="D127" s="4">
         <v>22</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F77" s="6">
-        <v>21</v>
-      </c>
-      <c r="G77" s="6">
-        <v>21</v>
-      </c>
-      <c r="H77" s="6">
-        <v>21</v>
-      </c>
-      <c r="I77" s="6">
-        <v>21</v>
-      </c>
-      <c r="J77" s="6">
-        <v>21</v>
-      </c>
-      <c r="K77" s="6">
-        <v>21</v>
-      </c>
-      <c r="L77" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M77"/>
-      <c r="N77"/>
-      <c r="O77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78">
-        <v>11101023</v>
-      </c>
-      <c r="C78">
-        <v>10001</v>
-      </c>
-      <c r="D78" s="4">
+      <c r="E127" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F127" s="6">
+        <v>233</v>
+      </c>
+      <c r="G127" s="6">
+        <v>22</v>
+      </c>
+      <c r="H127" s="6">
+        <v>840</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J127" s="7">
+        <v>575</v>
+      </c>
+      <c r="K127" s="7">
+        <v>280</v>
+      </c>
+      <c r="L127" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" customFormat="1" spans="1:15">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>70023</v>
+      </c>
+      <c r="C128">
+        <v>7</v>
+      </c>
+      <c r="D128" s="4">
         <v>23</v>
       </c>
-      <c r="E78" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F78" s="6">
-        <v>22</v>
-      </c>
-      <c r="G78" s="6">
-        <v>22</v>
-      </c>
-      <c r="H78" s="6">
-        <v>22</v>
-      </c>
-      <c r="I78" s="6">
-        <v>22</v>
-      </c>
-      <c r="J78" s="6">
-        <v>22</v>
-      </c>
-      <c r="K78" s="6">
-        <v>22</v>
-      </c>
-      <c r="L78" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M78"/>
-      <c r="N78"/>
-      <c r="O78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79">
-        <v>11101024</v>
-      </c>
-      <c r="C79">
-        <v>10001</v>
-      </c>
-      <c r="D79" s="4">
+      <c r="E128" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F128" s="6">
+        <v>244</v>
+      </c>
+      <c r="G128" s="6">
+        <v>23</v>
+      </c>
+      <c r="H128" s="6">
+        <v>880</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J128" s="7">
+        <v>600</v>
+      </c>
+      <c r="K128" s="7">
+        <v>293</v>
+      </c>
+      <c r="L128" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customFormat="1" spans="1:15">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>70024</v>
+      </c>
+      <c r="C129">
+        <v>7</v>
+      </c>
+      <c r="D129" s="4">
         <v>24</v>
       </c>
-      <c r="E79" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F79" s="6">
-        <v>23</v>
-      </c>
-      <c r="G79" s="6">
-        <v>23</v>
-      </c>
-      <c r="H79" s="6">
-        <v>23</v>
-      </c>
-      <c r="I79" s="6">
-        <v>23</v>
-      </c>
-      <c r="J79" s="6">
-        <v>23</v>
-      </c>
-      <c r="K79" s="6">
-        <v>23</v>
-      </c>
-      <c r="L79" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M79"/>
-      <c r="N79"/>
-      <c r="O79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="A80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80">
-        <v>11101025</v>
-      </c>
-      <c r="C80">
-        <v>10001</v>
-      </c>
-      <c r="D80" s="4">
+      <c r="E129" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F129" s="6">
+        <v>255</v>
+      </c>
+      <c r="G129" s="6">
+        <v>24</v>
+      </c>
+      <c r="H129" s="6">
+        <v>920</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J129" s="7">
+        <v>625</v>
+      </c>
+      <c r="K129" s="7">
+        <v>306</v>
+      </c>
+      <c r="L129" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" customFormat="1" spans="1:15">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>70025</v>
+      </c>
+      <c r="C130">
+        <v>7</v>
+      </c>
+      <c r="D130" s="4">
         <v>25</v>
       </c>
-      <c r="E80" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F80" s="6">
-        <v>24</v>
-      </c>
-      <c r="G80" s="6">
-        <v>24</v>
-      </c>
-      <c r="H80" s="6">
-        <v>24</v>
-      </c>
-      <c r="I80" s="6">
-        <v>24</v>
-      </c>
-      <c r="J80" s="6">
-        <v>24</v>
-      </c>
-      <c r="K80" s="6">
-        <v>24</v>
-      </c>
-      <c r="L80" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M80"/>
-      <c r="N80"/>
-      <c r="O80">
+      <c r="E130" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F130" s="6">
+        <v>266</v>
+      </c>
+      <c r="G130" s="6">
+        <v>25</v>
+      </c>
+      <c r="H130" s="6">
+        <v>960</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J130" s="7">
+        <v>650</v>
+      </c>
+      <c r="K130" s="7">
+        <v>319</v>
+      </c>
+      <c r="L130" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" customFormat="1" spans="1:15">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>70026</v>
+      </c>
+      <c r="C131">
+        <v>7</v>
+      </c>
+      <c r="D131" s="4">
+        <v>26</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F131" s="6">
+        <v>277</v>
+      </c>
+      <c r="G131" s="6">
+        <v>26</v>
+      </c>
+      <c r="H131" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J131" s="7">
+        <v>675</v>
+      </c>
+      <c r="K131" s="7">
+        <v>332</v>
+      </c>
+      <c r="L131" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" customFormat="1" spans="1:15">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>70027</v>
+      </c>
+      <c r="C132">
+        <v>7</v>
+      </c>
+      <c r="D132" s="4">
+        <v>27</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F132" s="6">
+        <v>288</v>
+      </c>
+      <c r="G132" s="6">
+        <v>27</v>
+      </c>
+      <c r="H132" s="6">
+        <v>1040</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J132" s="7">
+        <v>700</v>
+      </c>
+      <c r="K132" s="7">
+        <v>345</v>
+      </c>
+      <c r="L132" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" customFormat="1" spans="1:15">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>70028</v>
+      </c>
+      <c r="C133">
+        <v>7</v>
+      </c>
+      <c r="D133" s="4">
+        <v>28</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F133" s="6">
+        <v>299</v>
+      </c>
+      <c r="G133" s="6">
+        <v>28</v>
+      </c>
+      <c r="H133" s="6">
+        <v>1080</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J133" s="7">
+        <v>725</v>
+      </c>
+      <c r="K133" s="7">
+        <v>358</v>
+      </c>
+      <c r="L133" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" customFormat="1" spans="1:15">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>70029</v>
+      </c>
+      <c r="C134">
+        <v>7</v>
+      </c>
+      <c r="D134" s="4">
+        <v>29</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F134" s="6">
+        <v>310</v>
+      </c>
+      <c r="G134" s="6">
+        <v>29</v>
+      </c>
+      <c r="H134" s="6">
+        <v>1120</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J134" s="7">
+        <v>750</v>
+      </c>
+      <c r="K134" s="7">
+        <v>371</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" customFormat="1" spans="1:15">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135">
+        <v>70030</v>
+      </c>
+      <c r="C135">
+        <v>7</v>
+      </c>
+      <c r="D135" s="4">
+        <v>30</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F135" s="6">
+        <v>321</v>
+      </c>
+      <c r="G135" s="6">
+        <v>30</v>
+      </c>
+      <c r="H135" s="6">
+        <v>1160</v>
+      </c>
+      <c r="I135" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J135" s="7">
+        <v>775</v>
+      </c>
+      <c r="K135" s="7">
+        <v>384</v>
+      </c>
+      <c r="L135" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" customFormat="1" spans="4:12">
+      <c r="D136" s="4"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+    </row>
+    <row r="137" spans="4:12">
+      <c r="D137" s="4"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <v>1010001</v>
+      </c>
+      <c r="C138">
+        <v>101</v>
+      </c>
+      <c r="D138" s="4">
+        <v>1</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F138" s="6">
+        <v>0</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J138" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K138" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L138" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O138">
         <v>0</v>
       </c>
     </row>
